--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3196.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3196.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9453781519533443</v>
+        <v>1.643996357917786</v>
       </c>
       <c r="B1">
-        <v>1.486651133065446</v>
+        <v>2.569762468338013</v>
       </c>
       <c r="C1">
-        <v>3.86292112969913</v>
+        <v>2.986007452011108</v>
       </c>
       <c r="D1">
-        <v>6.012194451873324</v>
+        <v>3.031073093414307</v>
       </c>
       <c r="E1">
-        <v>1.95825927337694</v>
+        <v>1.053208231925964</v>
       </c>
     </row>
   </sheetData>
